--- a/test/MergeCell.xlsx
+++ b/test/MergeCell.xlsx
@@ -130,8 +130,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,9 +140,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,12 +174,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -225,12 +221,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -260,12 +256,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
